--- a/data/small/l_data08.xlsx
+++ b/data/small/l_data08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\data1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE146D4-EE0E-405B-A04F-D907AF40E56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD44EFE9-3BE2-42A4-A27A-205B04AA77C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="288">
   <si>
     <t>id</t>
   </si>
@@ -258,9 +258,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-1,1,1,0,0</t>
-  </si>
-  <si>
     <t>0,-1,0,0,0</t>
   </si>
   <si>
@@ -270,33 +267,18 @@
     <t>0,1,0,1,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,0,0,0,0</t>
   </si>
   <si>
     <t>0,0,0,0,-1</t>
   </si>
   <si>
-    <t>1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,1</t>
   </si>
   <si>
-    <t>-1,0,-1,-1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,0</t>
   </si>
   <si>
-    <t>0,0,1,1,0</t>
-  </si>
-  <si>
     <t>-1,0,0,0,1</t>
   </si>
   <si>
@@ -321,138 +303,60 @@
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1</t>
-  </si>
-  <si>
     <t>1,0,0,-1,1</t>
   </si>
   <si>
     <t>0,0,1,0,1</t>
   </si>
   <si>
-    <t>1,1,0,0,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
-    <t>0,-1,-1,1,1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,0</t>
   </si>
   <si>
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
     <t>0,0,0,1,-1</t>
   </si>
   <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
-    <t>1,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,1</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,-1,1,0</t>
-  </si>
-  <si>
     <t>0,0,0,0,1</t>
   </si>
   <si>
     <t>like1</t>
   </si>
   <si>
-    <t>1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,0,1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,1</t>
   </si>
   <si>
-    <t>like2</t>
-  </si>
-  <si>
     <t>1,0,1,0,1</t>
   </si>
   <si>
     <t>1,0,0,1,1</t>
   </si>
   <si>
-    <t>1,1,0,1,0</t>
-  </si>
-  <si>
-    <t>1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>-1,1,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,1,-1,0</t>
   </si>
   <si>
     <t>-1,0,0,-1,-1</t>
   </si>
   <si>
-    <t>0,1,1,0,1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
-    <t>1,1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,-1,1</t>
   </si>
   <si>
-    <t>1,-1,-1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,1,0</t>
-  </si>
-  <si>
     <t>0,-1,0,-1,1</t>
   </si>
   <si>
-    <t>-1,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,1,-1,1,0</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>-1,0,1,0,0</t>
   </si>
   <si>
@@ -465,57 +369,27 @@
     <t>-1,0,1,0,1</t>
   </si>
   <si>
-    <t>0,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,1</t>
   </si>
   <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
-    <t>-1,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,1,1,1,-1</t>
-  </si>
-  <si>
     <t>0,1,1,-1,0</t>
   </si>
   <si>
-    <t>1,1,0,-1,0</t>
-  </si>
-  <si>
     <t>-1,0,-1,0,1</t>
   </si>
   <si>
     <t>1,0,0,0,-1</t>
   </si>
   <si>
-    <t>0,-1,1,-1,0</t>
-  </si>
-  <si>
     <t>-1,-1,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,1</t>
   </si>
   <si>
-    <t>1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,-1,0,-1</t>
-  </si>
-  <si>
     <t>like3</t>
   </si>
   <si>
@@ -760,303 +634,6 @@
   </si>
   <si>
     <t>公共体育III</t>
-  </si>
-  <si>
-    <t>曲良东</t>
-  </si>
-  <si>
-    <t>刘美玲</t>
-  </si>
-  <si>
-    <t>龙凤珍</t>
-  </si>
-  <si>
-    <t>钟植任</t>
-  </si>
-  <si>
-    <t>温茜茜</t>
-  </si>
-  <si>
-    <t>韩枫</t>
-  </si>
-  <si>
-    <t>邹强</t>
-  </si>
-  <si>
-    <t>秦董洪</t>
-  </si>
-  <si>
-    <t>徐晨</t>
-  </si>
-  <si>
-    <t>黄华娟</t>
-  </si>
-  <si>
-    <t>张超群</t>
-  </si>
-  <si>
-    <t>陈键</t>
-  </si>
-  <si>
-    <t>鲍冬雪</t>
-  </si>
-  <si>
-    <t>苏伊琳</t>
-  </si>
-  <si>
-    <t>刘洁</t>
-  </si>
-  <si>
-    <t>田蕾</t>
-  </si>
-  <si>
-    <t>黄淑茵</t>
-  </si>
-  <si>
-    <t>刘娜</t>
-  </si>
-  <si>
-    <t>何德牛</t>
-  </si>
-  <si>
-    <t>吴义霞</t>
-  </si>
-  <si>
-    <t>孟华志</t>
-  </si>
-  <si>
-    <t>张秀兰</t>
-  </si>
-  <si>
-    <t>刘景能</t>
-  </si>
-  <si>
-    <t>黄留佳</t>
-  </si>
-  <si>
-    <t>杨蕾蕾</t>
-  </si>
-  <si>
-    <t>梁贤烨</t>
-  </si>
-  <si>
-    <t>宣彦庄</t>
-  </si>
-  <si>
-    <t>周萍</t>
-  </si>
-  <si>
-    <t>孙寿媚</t>
-  </si>
-  <si>
-    <t>李会</t>
-  </si>
-  <si>
-    <t>何磊</t>
-  </si>
-  <si>
-    <t>李承云</t>
-  </si>
-  <si>
-    <t>黄治球</t>
-  </si>
-  <si>
-    <t>苏杰童</t>
-  </si>
-  <si>
-    <t>韦圣贤</t>
-  </si>
-  <si>
-    <t>周卫</t>
-  </si>
-  <si>
-    <t>韦晓萍</t>
-  </si>
-  <si>
-    <t>莫靖林</t>
-  </si>
-  <si>
-    <t>莫愿斌</t>
-  </si>
-  <si>
-    <t>李熹</t>
-  </si>
-  <si>
-    <t>张纲强</t>
-  </si>
-  <si>
-    <t>韦一</t>
-  </si>
-  <si>
-    <t>叶吉丽</t>
-  </si>
-  <si>
-    <t>蒋权</t>
-  </si>
-  <si>
-    <t>李海滨</t>
-  </si>
-  <si>
-    <t>李文韬</t>
-  </si>
-  <si>
-    <t>唐佳燊</t>
-  </si>
-  <si>
-    <t>黄天城</t>
-  </si>
-  <si>
-    <t>张桂芬</t>
-  </si>
-  <si>
-    <t>梁新宇</t>
-  </si>
-  <si>
-    <t>滕开良</t>
-  </si>
-  <si>
-    <t>童雅俊</t>
-  </si>
-  <si>
-    <t>汤卫东</t>
-  </si>
-  <si>
-    <t>陆美曲</t>
-  </si>
-  <si>
-    <t>张牧行</t>
-  </si>
-  <si>
-    <t>赵地</t>
-  </si>
-  <si>
-    <t>蒋明</t>
-  </si>
-  <si>
-    <t>刘勇</t>
-  </si>
-  <si>
-    <t>覃春芳</t>
-  </si>
-  <si>
-    <t>何建强</t>
-  </si>
-  <si>
-    <t>劳欢</t>
-  </si>
-  <si>
-    <t>梁啸</t>
-  </si>
-  <si>
-    <t>白凤波</t>
-  </si>
-  <si>
-    <t>韦艳艳</t>
-  </si>
-  <si>
-    <t>王哲</t>
-  </si>
-  <si>
-    <t>葛丽娜</t>
-  </si>
-  <si>
-    <t>方郗</t>
-  </si>
-  <si>
-    <t>高广尚</t>
-  </si>
-  <si>
-    <t>杨丽丽</t>
-  </si>
-  <si>
-    <t>文勇</t>
-  </si>
-  <si>
-    <t>蒋荣萍</t>
-  </si>
-  <si>
-    <t>邓艳平</t>
-  </si>
-  <si>
-    <t>裴胜玉</t>
-  </si>
-  <si>
-    <t>石丽芳</t>
-  </si>
-  <si>
-    <t>朱映运</t>
-  </si>
-  <si>
-    <t>吴岸燕</t>
-  </si>
-  <si>
-    <t>李丽娟</t>
-  </si>
-  <si>
-    <t>陆月香</t>
-  </si>
-  <si>
-    <t>胡雪婷</t>
-  </si>
-  <si>
-    <t>蓝艳芳</t>
-  </si>
-  <si>
-    <t>伍琼</t>
-  </si>
-  <si>
-    <t>何转红</t>
-  </si>
-  <si>
-    <t>韦雯</t>
-  </si>
-  <si>
-    <t>刘芳琼</t>
-  </si>
-  <si>
-    <t>贺小燕</t>
-  </si>
-  <si>
-    <t>刘梦颖</t>
-  </si>
-  <si>
-    <t>邹宇灵</t>
-  </si>
-  <si>
-    <t>程文凤</t>
-  </si>
-  <si>
-    <t>覃青必</t>
-  </si>
-  <si>
-    <t>唐维</t>
-  </si>
-  <si>
-    <t>周园</t>
-  </si>
-  <si>
-    <t>尚艳华</t>
-  </si>
-  <si>
-    <t>梁正</t>
-  </si>
-  <si>
-    <t>刘美杏</t>
-  </si>
-  <si>
-    <t>陈彦君</t>
-  </si>
-  <si>
-    <t>柳鸿志</t>
-  </si>
-  <si>
-    <t>刘逸峰</t>
-  </si>
-  <si>
-    <t>朱A</t>
-  </si>
-  <si>
-    <t>朱C</t>
   </si>
   <si>
     <t>小教室</t>
@@ -1237,6 +814,117 @@
   <si>
     <t>class</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,1,1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,1,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,-1</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1371,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1697,7 +1385,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,7 +1396,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,7 +1407,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,7 +1418,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>353</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,7 +1429,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,7 +1440,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,7 +1451,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,7 +1462,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>357</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,7 +1473,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>358</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>345</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2848,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>346</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2949,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>347</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>348</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3249,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>349</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +2950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
@@ -3282,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>380</v>
+        <v>239</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>71</v>
@@ -3303,7 +2991,7 @@
         <v>73</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>359</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3341,7 +3029,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3371,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3401,7 +3089,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3431,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3447,7 +3135,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3461,7 +3149,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3491,7 +3179,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3521,7 +3209,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3581,7 +3269,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3611,7 +3299,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3641,7 +3329,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3657,7 +3345,7 @@
         <v>74</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3671,7 +3359,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3701,7 +3389,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3761,7 +3449,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3791,7 +3479,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3821,7 +3509,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3851,7 +3539,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3881,7 +3569,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>226</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3941,7 +3629,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -4031,7 +3719,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -4061,7 +3749,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -4077,7 +3765,7 @@
         <v>74</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4091,7 +3779,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -4121,7 +3809,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -4151,7 +3839,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -4181,7 +3869,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -4241,7 +3929,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -4271,7 +3959,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -4287,7 +3975,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4301,7 +3989,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>369</v>
+        <v>228</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -4331,7 +4019,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4361,7 +4049,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -4391,7 +4079,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4421,7 +4109,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4481,7 +4169,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4511,7 +4199,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4541,7 +4229,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4571,7 +4259,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4601,7 +4289,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4661,7 +4349,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -4691,7 +4379,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4707,7 +4395,7 @@
         <v>74</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4721,7 +4409,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4751,7 +4439,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4781,7 +4469,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>373</v>
+        <v>232</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4841,7 +4529,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>228</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4917,7 +4605,7 @@
         <v>74</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -4931,7 +4619,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -4961,7 +4649,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -4991,7 +4679,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -5021,7 +4709,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -5051,7 +4739,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -5081,7 +4769,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -5111,7 +4799,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -5141,7 +4829,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -5171,7 +4859,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -5201,7 +4889,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>375</v>
+        <v>234</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -5291,7 +4979,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>375</v>
+        <v>234</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -5321,7 +5009,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -5337,7 +5025,7 @@
         <v>74</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -5411,7 +5099,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>236</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -5441,7 +5129,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>377</v>
+        <v>236</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -5547,7 +5235,7 @@
         <v>74</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -5561,7 +5249,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -5651,7 +5339,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>379</v>
+        <v>238</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -5681,7 +5369,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -5711,7 +5399,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -5741,7 +5429,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -5771,7 +5459,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -5801,7 +5489,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>382</v>
+        <v>241</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -5831,7 +5519,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>383</v>
+        <v>242</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -5891,7 +5579,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -5921,7 +5609,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -5967,7 +5655,7 @@
         <v>74</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
@@ -5981,7 +5669,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>385</v>
+        <v>244</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -6011,7 +5699,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>386</v>
+        <v>245</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -6071,7 +5759,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>387</v>
+        <v>246</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -6161,7 +5849,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -6177,7 +5865,7 @@
         <v>74</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
@@ -6191,7 +5879,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -6221,7 +5909,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>389</v>
+        <v>248</v>
       </c>
       <c r="C99">
         <v>98</v>
@@ -6251,7 +5939,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>390</v>
+        <v>249</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -6281,7 +5969,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>390</v>
+        <v>249</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -6335,27 +6023,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6363,10 +6051,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6374,10 +6062,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6385,10 +6073,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6396,10 +6084,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6407,10 +6095,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6418,10 +6106,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6429,10 +6117,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6440,10 +6128,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6451,10 +6139,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6462,10 +6150,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6473,10 +6161,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6484,10 +6172,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6495,10 +6183,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6506,10 +6194,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6517,10 +6205,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6528,10 +6216,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6539,10 +6227,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6550,10 +6238,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6561,10 +6249,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6572,10 +6260,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6583,10 +6271,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -6594,10 +6282,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6605,10 +6293,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6616,10 +6304,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6627,10 +6315,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6638,10 +6326,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6649,10 +6337,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6660,10 +6348,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6671,10 +6359,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6682,10 +6370,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6693,10 +6381,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6704,10 +6392,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6715,10 +6403,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6726,10 +6414,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6737,10 +6425,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6748,10 +6436,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6759,10 +6447,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6770,10 +6458,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6781,10 +6469,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6792,10 +6480,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6803,10 +6491,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6814,10 +6502,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6825,10 +6513,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>256</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6836,10 +6524,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6850,7 +6538,7 @@
         <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6858,10 +6546,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6869,10 +6557,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6880,10 +6568,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6891,10 +6579,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6902,10 +6590,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6913,10 +6601,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6924,10 +6612,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6935,10 +6623,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6946,10 +6634,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6957,10 +6645,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6968,10 +6656,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6979,10 +6667,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6990,10 +6678,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -7001,10 +6689,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7012,10 +6700,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7023,10 +6711,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7034,10 +6722,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7045,10 +6733,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7056,10 +6744,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="C65" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7067,10 +6755,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7078,10 +6766,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7089,10 +6777,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7100,10 +6788,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7111,10 +6799,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7122,10 +6810,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7133,10 +6821,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7144,10 +6832,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -7155,10 +6843,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -7166,10 +6854,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -7177,10 +6865,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -7188,10 +6876,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7199,10 +6887,194 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="C78" t="s">
-        <v>244</v>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -7215,48 +7087,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7264,16 +7122,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" t="s">
-        <v>246</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7281,16 +7133,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7298,16 +7144,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7315,16 +7155,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7332,16 +7166,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7349,16 +7177,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7366,16 +7188,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7383,16 +7199,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7400,16 +7210,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7417,16 +7221,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" t="s">
-        <v>255</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7434,16 +7232,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7451,16 +7243,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7468,16 +7254,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7485,1444 +7265,934 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>256</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" t="s">
-        <v>165</v>
-      </c>
-      <c r="E58" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" t="s">
-        <v>164</v>
-      </c>
-      <c r="E59" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" t="s">
-        <v>164</v>
-      </c>
-      <c r="E65" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" t="s">
-        <v>164</v>
-      </c>
-      <c r="E68" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" t="s">
-        <v>164</v>
-      </c>
-      <c r="E72" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" t="s">
-        <v>166</v>
-      </c>
-      <c r="E73" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s">
         <v>122</v>
       </c>
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" t="s">
-        <v>164</v>
-      </c>
-      <c r="E75" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" t="s">
-        <v>164</v>
-      </c>
-      <c r="E77" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" t="s">
-        <v>165</v>
-      </c>
-      <c r="E78" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" t="s">
-        <v>164</v>
-      </c>
-      <c r="E79" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" t="s">
-        <v>166</v>
-      </c>
-      <c r="E80" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" t="s">
-        <v>164</v>
-      </c>
-      <c r="E81" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
-      </c>
-      <c r="D82" t="s">
-        <v>164</v>
-      </c>
-      <c r="E82" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" t="s">
-        <v>166</v>
-      </c>
-      <c r="E84" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" t="s">
-        <v>164</v>
-      </c>
-      <c r="E85" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" t="s">
-        <v>166</v>
-      </c>
-      <c r="E86" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" t="s">
-        <v>165</v>
-      </c>
-      <c r="E87" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" t="s">
-        <v>165</v>
-      </c>
-      <c r="E88" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
-      </c>
-      <c r="D89" t="s">
-        <v>164</v>
-      </c>
-      <c r="E89" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" t="s">
-        <v>165</v>
-      </c>
-      <c r="E90" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>287</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" t="s">
-        <v>166</v>
-      </c>
-      <c r="E91" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" t="s">
-        <v>166</v>
-      </c>
-      <c r="E92" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>161</v>
-      </c>
-      <c r="D93" t="s">
-        <v>164</v>
-      </c>
-      <c r="E93" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="C94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" t="s">
-        <v>164</v>
-      </c>
-      <c r="E94" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" t="s">
-        <v>165</v>
-      </c>
-      <c r="E95" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
-      </c>
-      <c r="D96" t="s">
-        <v>165</v>
-      </c>
-      <c r="E96" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" t="s">
-        <v>166</v>
-      </c>
-      <c r="E97" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
-      </c>
-      <c r="D98" t="s">
-        <v>165</v>
-      </c>
-      <c r="E98" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
-      </c>
-      <c r="D99" t="s">
-        <v>164</v>
-      </c>
-      <c r="E99" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
-      </c>
-      <c r="D100" t="s">
-        <v>165</v>
-      </c>
-      <c r="E100" t="s">
-        <v>343</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/small/l_data08.xlsx
+++ b/data/small/l_data08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD44EFE9-3BE2-42A4-A27A-205B04AA77C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435FE0A0-2AC4-426F-8985-C698C422F94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="309">
   <si>
     <t>id</t>
   </si>
@@ -291,24 +291,12 @@
     <t>-1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,-1,0,0,0</t>
-  </si>
-  <si>
     <t>1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,0,1</t>
-  </si>
-  <si>
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>1,0,0,-1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
@@ -318,9 +306,6 @@
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>0,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
@@ -336,18 +321,9 @@
     <t>1,0,1,0,1</t>
   </si>
   <si>
-    <t>1,0,0,1,1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
@@ -360,18 +336,12 @@
     <t>-1,0,1,0,0</t>
   </si>
   <si>
-    <t>0,1,-1,0,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,0</t>
   </si>
   <si>
     <t>-1,0,1,0,1</t>
   </si>
   <si>
-    <t>0,-1,1,0,1</t>
-  </si>
-  <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
@@ -379,12 +349,6 @@
   </si>
   <si>
     <t>-1,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,0</t>
   </si>
   <si>
     <t>0,-1,0,0,1</t>
@@ -816,24 +780,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-1,0,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,-1</t>
   </si>
   <si>
     <t>-1,0,-1,0,0</t>
   </si>
   <si>
-    <t>-1,-1,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,1,-1</t>
   </si>
   <si>
-    <t>0,1,0,1,-1</t>
-  </si>
-  <si>
     <t>-1,0,0,1,0</t>
   </si>
   <si>
@@ -849,82 +804,190 @@
     <t>0,0,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,1,1,0</t>
-  </si>
-  <si>
     <t>-1,1,0,0,0</t>
   </si>
   <si>
     <t>-1,-1,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,-1,-1</t>
-  </si>
-  <si>
     <t>1,0,1,0,-1</t>
   </si>
   <si>
     <t>0,-1,-1,-1,0</t>
   </si>
   <si>
-    <t>1,0,-1,-1,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,0,-1</t>
-  </si>
-  <si>
     <t>1,1,0,-1,-1</t>
   </si>
   <si>
-    <t>1,-1,0,1,0</t>
-  </si>
-  <si>
     <t>-1,1,0,0,1</t>
   </si>
   <si>
-    <t>1,1,0,1,-1</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,0,-1</t>
-  </si>
-  <si>
     <t>-1,1,0,-1,1</t>
   </si>
   <si>
-    <t>0,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,-1,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,1,-1,1,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,-1</t>
   </si>
   <si>
     <t>-1,0,1,1,0</t>
   </si>
   <si>
-    <t>0,0,-1,1,-1</t>
+    <t>0,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>0,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,1,0</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1434,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1385,7 +1448,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1396,7 +1459,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,7 +1470,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,7 +1481,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1492,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,7 +1503,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,7 +1514,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,7 +1525,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,7 +1536,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2211,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2536,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2696,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2937,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2970,13 +3033,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>71</v>
@@ -2991,7 +3054,7 @@
         <v>73</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3029,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3059,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3089,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3119,7 +3182,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3135,7 +3198,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3149,7 +3212,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3179,7 +3242,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3209,7 +3272,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3269,7 +3332,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3299,7 +3362,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3329,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3345,7 +3408,7 @@
         <v>74</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3359,7 +3422,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3389,7 +3452,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3449,7 +3512,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3479,7 +3542,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3509,7 +3572,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3539,7 +3602,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3569,7 +3632,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3629,7 +3692,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3719,7 +3782,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3749,7 +3812,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3765,7 +3828,7 @@
         <v>74</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -3779,7 +3842,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3809,7 +3872,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3839,7 +3902,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3869,7 +3932,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -3929,7 +3992,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -3959,7 +4022,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -3975,7 +4038,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -3989,7 +4052,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -4019,7 +4082,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4049,7 +4112,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -4079,7 +4142,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4109,7 +4172,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4169,7 +4232,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4199,7 +4262,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4229,7 +4292,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4259,7 +4322,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4289,7 +4352,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4349,7 +4412,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -4379,7 +4442,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4395,7 +4458,7 @@
         <v>74</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4409,7 +4472,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4439,7 +4502,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4469,7 +4532,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4529,7 +4592,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4605,7 +4668,7 @@
         <v>74</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -4619,7 +4682,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -4649,7 +4712,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -4679,7 +4742,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -4709,7 +4772,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -4739,7 +4802,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -4769,7 +4832,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -4799,7 +4862,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -4829,7 +4892,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -4859,7 +4922,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -4889,7 +4952,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -4979,7 +5042,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -5009,7 +5072,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -5025,7 +5088,7 @@
         <v>74</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -5099,7 +5162,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -5129,7 +5192,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -5235,7 +5298,7 @@
         <v>74</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -5249,7 +5312,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -5339,7 +5402,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -5369,7 +5432,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -5399,7 +5462,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -5429,7 +5492,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -5459,7 +5522,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -5489,7 +5552,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -5519,7 +5582,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -5579,7 +5642,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -5609,7 +5672,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -5655,7 +5718,7 @@
         <v>74</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
@@ -5669,7 +5732,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -5699,7 +5762,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -5759,7 +5822,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -5849,7 +5912,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -5865,7 +5928,7 @@
         <v>74</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
@@ -5879,7 +5942,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -5909,7 +5972,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C99">
         <v>98</v>
@@ -5939,7 +6002,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -5969,7 +6032,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -6025,25 +6088,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:B121"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6051,10 +6113,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6062,10 +6124,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6073,10 +6135,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6084,10 +6146,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6095,10 +6157,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6106,10 +6168,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6117,10 +6179,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6128,10 +6190,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6139,10 +6201,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6150,10 +6212,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6161,10 +6223,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6172,10 +6234,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6183,10 +6245,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6194,10 +6256,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6205,10 +6267,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6216,10 +6278,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6227,10 +6289,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6238,10 +6300,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6249,10 +6311,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6260,10 +6322,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6271,10 +6333,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -6282,10 +6344,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6293,10 +6355,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6304,10 +6366,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6315,10 +6377,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6326,10 +6388,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6337,10 +6399,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6348,10 +6410,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6359,10 +6421,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6370,10 +6432,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6381,10 +6443,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6392,10 +6454,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6403,10 +6465,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6414,10 +6476,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6425,10 +6487,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6436,10 +6498,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6447,10 +6509,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6458,10 +6520,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6469,10 +6531,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6480,10 +6542,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6494,7 +6556,7 @@
         <v>255</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6502,10 +6564,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6513,10 +6575,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6524,10 +6586,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6535,10 +6597,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6546,10 +6608,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6557,10 +6619,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>257</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6568,10 +6630,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6579,10 +6641,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6590,10 +6652,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6601,10 +6663,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6612,10 +6674,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6623,10 +6685,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6634,10 +6696,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6645,10 +6707,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6656,10 +6718,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6667,10 +6729,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6681,7 +6743,7 @@
         <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6689,10 +6751,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6700,10 +6762,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>297</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6711,10 +6773,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6722,10 +6784,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6733,10 +6795,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6744,10 +6806,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6755,10 +6817,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6766,10 +6828,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6777,10 +6839,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6788,10 +6850,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6799,10 +6861,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6810,10 +6872,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6821,10 +6883,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6832,10 +6894,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6843,10 +6905,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6854,10 +6916,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6865,10 +6927,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6876,10 +6938,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6887,10 +6949,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6898,7 +6960,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6906,7 +6968,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -6914,7 +6976,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -6922,7 +6984,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -6930,7 +6992,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -6938,7 +7000,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -6946,7 +7008,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -6954,7 +7016,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -6962,7 +7024,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -6970,7 +7032,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -6978,7 +7040,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -6986,7 +7048,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -6994,7 +7056,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -7002,7 +7064,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -7010,7 +7072,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -7018,7 +7080,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -7026,7 +7088,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -7034,7 +7096,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -7042,7 +7104,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -7050,7 +7112,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -7058,7 +7120,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -7066,7 +7128,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -7074,7 +7136,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>262</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7087,21 +7149,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="1"/>
@@ -7111,10 +7173,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7122,10 +7184,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7133,10 +7195,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7144,10 +7206,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7155,10 +7217,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7166,10 +7228,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7177,10 +7239,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7188,10 +7250,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7199,10 +7261,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7210,10 +7272,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7221,10 +7283,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7232,10 +7294,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7243,10 +7305,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7254,10 +7316,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7265,10 +7327,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7276,10 +7338,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7287,10 +7349,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7298,10 +7360,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7309,10 +7371,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7320,10 +7382,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7331,10 +7393,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -7342,10 +7404,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7353,10 +7415,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7364,10 +7426,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7375,10 +7437,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7386,10 +7448,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7397,10 +7459,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7408,10 +7470,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7419,10 +7481,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7433,7 +7495,7 @@
         <v>270</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7441,10 +7503,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7452,10 +7514,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7463,10 +7525,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7474,10 +7536,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7485,10 +7547,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7496,10 +7558,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7507,10 +7569,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7518,10 +7580,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7529,10 +7591,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>275</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7540,10 +7602,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7551,10 +7613,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -7562,10 +7624,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -7573,10 +7635,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7584,10 +7646,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7595,10 +7657,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7606,10 +7668,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7617,10 +7679,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7628,10 +7690,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -7639,10 +7701,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7650,10 +7712,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -7661,10 +7723,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7672,10 +7734,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7683,10 +7745,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7694,10 +7756,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -7705,10 +7767,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -7716,10 +7778,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -7727,10 +7789,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -7738,10 +7800,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -7749,10 +7811,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7760,10 +7822,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7771,10 +7833,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7782,10 +7844,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7793,10 +7855,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7804,10 +7866,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7815,10 +7877,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7826,10 +7888,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>263</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7837,10 +7899,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7848,10 +7910,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7859,10 +7921,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7870,10 +7932,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7881,10 +7943,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7892,10 +7954,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -7903,10 +7965,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -7914,10 +7976,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -7925,10 +7987,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -7936,10 +7998,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7947,10 +8009,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7958,10 +8020,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -7969,10 +8031,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -7980,10 +8042,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -7991,10 +8053,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -8002,10 +8064,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -8013,10 +8075,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -8024,10 +8086,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -8035,10 +8097,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -8046,10 +8108,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -8057,10 +8119,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>297</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -8068,10 +8130,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -8079,10 +8141,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -8090,10 +8152,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -8101,10 +8163,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>261</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -8112,10 +8174,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -8123,10 +8185,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -8134,10 +8196,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -8145,10 +8207,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -8156,10 +8218,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -8167,10 +8229,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -8178,10 +8240,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -8189,10 +8251,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>296</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
